--- a/6-combined-use-cases/3-combine-use-cases-challenge/combine-use-cases-solution.xlsx
+++ b/6-combined-use-cases/3-combine-use-cases-challenge/combine-use-cases-solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1ADXNizn78g-e61ZCkppsavo6N2ySroi1\Data Visualization with Python in Excel\Exercise Files\5-practical-use-cases-python-in-excel-data-viz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\global-excel-summit-python-in-excel-2025\6-combined-use-cases\3-combine-use-cases-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EBFD3-E25C-468D-B263-246FFFCF1769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8FAEC-D66E-4103-8EB9-09369DAEA9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{D516E1A2-457A-473F-9D7A-8ADE23876DA2}"/>
   </bookViews>
@@ -250,15 +250,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>935887</xdr:colOff>
+      <xdr:colOff>1605959</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>143983</xdr:rowOff>
+      <xdr:rowOff>38765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>397658</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>270288</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>162758</xdr:rowOff>
+      <xdr:rowOff>57540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -286,7 +286,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3328213" y="1052181"/>
+          <a:off x="3998285" y="946963"/>
           <a:ext cx="9180594" cy="4105664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -885,7 +885,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1664,7 +1664,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13F2BE21-89C6-459B-A982-30FAEFD79DCA}">
           <x14:formula1>
             <xm:f>agg_options!$A$1:$A$2</xm:f>
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
